--- a/output_appendix.xlsx
+++ b/output_appendix.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,40 +380,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>0.6_Coefficient (95% CI)</t>
+          <t>1_Coefficient (95% CI)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>0.6_p-value</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0.7_Coefficient (95% CI)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0.7_p-value</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0.8_Coefficient (95% CI)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0.8_p-value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1_Coefficient (95% CI)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>1_p-value</t>
         </is>
@@ -432,52 +402,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.28 (0.37, 2.04)</t>
+          <t>-0.2 (-0.99, 0.68)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.22 (0.27, 1.98)</t>
+          <t>-0.04 (-0.87, 0.82)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.23 (0.31, 2.14)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.25 (0.22, 2.16)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1.16 (0.13, 2.09)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.03</t>
+          <t>0.93</t>
         </is>
       </c>
     </row>
@@ -494,52 +434,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.04 (-0.69, 0.66)</t>
+          <t>-0.06 (-0.77, 0.58)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.07 (-0.9, 0.74)</t>
+          <t>-0.09 (-0.71, 0.62)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.26 (-1.08, 0.62)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.01 (-0.86, 0.82)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.13 (-0.62, 0.94)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.75</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -556,52 +466,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.22 (-0.75, 0.33)</t>
+          <t>0.72 (0.02, 1.43)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.12 (-0.5, 0.74)</t>
+          <t>0.9 (0.07, 1.74)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.01 (-0.77, 0.67)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-0.26 (-1.01, 0.4)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-0.24 (-1.02, 0.46)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.53</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -618,52 +498,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.28 (-0.89, 0.31)</t>
+          <t>-0.17 (-0.97, 0.52)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.25 (-0.79, 0.37)</t>
+          <t>0.2 (-0.57, 0.98)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1 (-0.52, 0.74)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.46 (-0.39, 1.14)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.46 (-0.38, 1.33)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.24</t>
+          <t>0.62</t>
         </is>
       </c>
     </row>
@@ -680,52 +530,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.1 (-0.74, 0.55)</t>
+          <t>0.65 (-0.32, 1.59)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.19 (-0.88, 0.53)</t>
+          <t>-0.06 (-0.92, 0.89)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.26 (-0.9, 0.39)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-0.26 (-0.92, 0.32)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-0.19 (-0.86, 0.37)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.55</t>
+          <t>0.89</t>
         </is>
       </c>
     </row>
@@ -742,52 +562,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.93 (-1.69, -0.09)</t>
+          <t>-0.75 (-1.6, 0.19)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.4 (-1.11, 0.29)</t>
+          <t>0.4 (-0.5, 1.41)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-0.38 (-1.08, 0.29)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-0.67 (-1.41, 0.02)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-0.72 (-1.37, 0)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.05</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -802,44 +592,24 @@
           <t>ss7</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.59 (0.75, 2.36)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.76 (-1.87, 0.34)</t>
+          <t>1.01 (0.1, 1.87)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.21 (-1.08, 0.75)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.23 (-0.56, 1.05)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-0.12 (-0.87, 0.65)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.75</t>
+          <t>0.03</t>
         </is>
       </c>
     </row>
@@ -854,34 +624,14 @@
           <t>ss8</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-0.78 (-1.83, 0.31)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-0.82 (-1.75, 0.11)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-0.41 (-1.23, 0.54)</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.35</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.14 (-1.04, 1.3)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -896,24 +646,31 @@
           <t>ss9</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-0.4 (-2.24, 1.33)</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-0.46 (-2.43, 1.48)</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.63</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-0.92 (-3.41, 1.48)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ss10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.3 (-1.94, 2.41)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
         </is>
       </c>
     </row>
